--- a/P2/microcode/microcode.xlsx
+++ b/P2/microcode/microcode.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wensh\Documents\interrupts-project\src\microcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanush/Programming/School/CS2200/P2/microcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0C5E2-A631-4515-8ABF-944790FB538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E5571-18F2-6D4C-8B26-DA487EBF98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>Index</t>
   </si>
@@ -409,12 +409,21 @@
   <si>
     <t>OR/XOR</t>
   </si>
+  <si>
+    <t>int1</t>
+  </si>
+  <si>
+    <t>int2</t>
+  </si>
+  <si>
+    <t>int3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +838,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,33 +889,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -923,7 +925,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -938,6 +940,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1159,46 +1168,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R72" sqref="R72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="3" max="7" width="2.69921875" customWidth="1"/>
-    <col min="8" max="8" width="2.296875" customWidth="1"/>
-    <col min="9" max="28" width="9.19921875" customWidth="1"/>
-    <col min="29" max="34" width="7.69921875" customWidth="1"/>
-    <col min="35" max="35" width="11.69921875" customWidth="1"/>
-    <col min="36" max="36" width="27.69921875" customWidth="1"/>
-    <col min="37" max="37" width="10.19921875" customWidth="1"/>
-    <col min="38" max="40" width="7.69921875" customWidth="1"/>
-    <col min="41" max="41" width="13.19921875" customWidth="1"/>
-    <col min="42" max="42" width="15.19921875" customWidth="1"/>
-    <col min="43" max="43" width="7.69921875" customWidth="1"/>
-    <col min="44" max="44" width="10.69921875" customWidth="1"/>
-    <col min="45" max="45" width="7.69921875" customWidth="1"/>
-    <col min="46" max="1030" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="28" width="9.1640625" customWidth="1"/>
+    <col min="29" max="34" width="7.6640625" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" customWidth="1"/>
+    <col min="38" max="40" width="7.6640625" customWidth="1"/>
+    <col min="41" max="41" width="13.1640625" customWidth="1"/>
+    <col min="42" max="42" width="15.1640625" customWidth="1"/>
+    <col min="43" max="43" width="7.6640625" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" customWidth="1"/>
+    <col min="46" max="1030" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30.7" customHeight="1">
+    <row r="1" spans="1:45" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:45" ht="14.25" customHeight="1">
+    <row r="2" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1377,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="25">
         <v>0</v>
@@ -1399,10 +1408,10 @@
       </c>
       <c r="AI2" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AH2, AG2, AF2),1),       BIN2HEX(_xlfn.CONCAT(AE2, AD2, AC2, AB2),1),     BIN2HEX(_xlfn.CONCAT(AA2,Z2,Y2, X2),1),     BIN2HEX(_xlfn.CONCAT(W2,V2,U2, T2),1),     BIN2HEX(_xlfn.CONCAT(S2,R2,Q2, P2),1),     BIN2HEX(_xlfn.CONCAT(O2,N2, M2, L2),1),     BIN2HEX(_xlfn.CONCAT(K2,J2,C2,D2),1),     BIN2HEX(_xlfn.CONCAT(E2,F2,G2,H2),1) )</f>
-        <v>0000C401</v>
+        <v>0300C401</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="14.25" customHeight="1">
+    <row r="3" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>00002082</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="14.25" customHeight="1">
+    <row r="4" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>01C01100</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="14.25" customHeight="1">
+    <row r="5" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A57" si="1">A4+1</f>
         <v>3</v>
@@ -1730,7 +1739,7 @@
         <v>00108044</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="14.25" customHeight="1">
+    <row r="6" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1840,7 +1849,7 @@
         <v>00210045</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.25" customHeight="1">
+    <row r="7" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1950,7 +1959,7 @@
         <v>00040100</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.25" customHeight="1">
+    <row r="8" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2060,7 +2069,7 @@
         <v>00108047</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.25" customHeight="1">
+    <row r="9" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2170,7 +2179,7 @@
         <v>00210048</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.25" customHeight="1">
+    <row r="10" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2280,7 +2289,7 @@
         <v>00840100</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.25" customHeight="1">
+    <row r="11" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2390,7 +2399,7 @@
         <v>0010804A</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="14.25" customHeight="1">
+    <row r="12" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2500,7 +2509,7 @@
         <v>0001080B</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="14.25" customHeight="1">
+    <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2610,7 +2619,7 @@
         <v>00040100</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="14.25" customHeight="1">
+    <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2720,7 +2729,7 @@
         <v>0010804D</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="14.25" customHeight="1">
+    <row r="15" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2830,7 +2839,7 @@
         <v>0001080E</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="14.25" customHeight="1">
+    <row r="16" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2940,7 +2949,7 @@
         <v>0000410F</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.25" customHeight="1">
+    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3050,7 +3059,7 @@
         <v>00040080</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.25" customHeight="1">
+    <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3160,7 +3169,7 @@
         <v>00108051</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.25" customHeight="1">
+    <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3270,7 +3279,7 @@
         <v>00010812</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.25" customHeight="1">
+    <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3380,7 +3389,7 @@
         <v>00004113</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.25" customHeight="1">
+    <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3490,7 +3499,7 @@
         <v>00080040</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.25" customHeight="1">
+    <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3600,7 +3609,7 @@
         <v>00008415</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.25" customHeight="1">
+    <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3710,7 +3719,7 @@
         <v>00010816</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.25" customHeight="1">
+    <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3820,7 +3829,7 @@
         <v>00040100</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.25" customHeight="1">
+    <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3930,7 +3939,7 @@
         <v>00140418</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.25" customHeight="1">
+    <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -4040,7 +4049,7 @@
         <v>00001040</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.25" customHeight="1">
+    <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4150,7 +4159,7 @@
         <v>00000019</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.25" customHeight="1">
+    <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4260,7 +4269,7 @@
         <v>0000805B</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.25" customHeight="1">
+    <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -4370,7 +4379,7 @@
         <v>0011005C</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.25" customHeight="1">
+    <row r="30" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -4480,7 +4489,7 @@
         <v>0042011D</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.25" customHeight="1">
+    <row r="31" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -4590,7 +4599,7 @@
         <v>0200001E</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.25" customHeight="1">
+    <row r="32" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -4700,7 +4709,7 @@
         <v>0000841F</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.25" customHeight="1">
+    <row r="33" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -4810,7 +4819,7 @@
         <v>00010820</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.25" customHeight="1">
+    <row r="34" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -4920,7 +4929,7 @@
         <v>00001100</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.25" customHeight="1">
+    <row r="35" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -5030,7 +5039,7 @@
         <v>00108062</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -5140,7 +5149,7 @@
         <v>00210063</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.25" customHeight="1">
+    <row r="37" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5250,14 +5259,16 @@
         <v>00040200</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.25" customHeight="1">
+    <row r="38" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -5266,17 +5277,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5">
         <f>BIN2DEC(_xlfn.CONCAT(C38:H38))</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -5291,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -5315,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="V38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
       </c>
       <c r="X38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
@@ -5339,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="AD38" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="25">
         <v>0</v>
       </c>
       <c r="AF38" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="25">
         <v>0</v>
@@ -5355,17 +5366,19 @@
       </c>
       <c r="AI38" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>14340425</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.25" customHeight="1">
+    <row r="39" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -5374,17 +5387,17 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -5463,18 +5476,20 @@
       </c>
       <c r="AI39" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00000026</v>
       </c>
       <c r="AJ39" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.25" customHeight="1">
+    <row r="40" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
@@ -5577,7 +5592,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.25" customHeight="1">
+    <row r="41" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5685,7 +5700,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.25" customHeight="1">
+    <row r="42" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5793,7 +5808,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.25" customHeight="1">
+    <row r="43" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5901,7 +5916,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.25" customHeight="1">
+    <row r="44" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6009,7 +6024,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.25" customHeight="1">
+    <row r="45" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -6117,7 +6132,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.25" customHeight="1">
+    <row r="46" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -6225,7 +6240,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.25" customHeight="1">
+    <row r="47" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6333,7 +6348,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.25" customHeight="1">
+    <row r="48" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -6441,7 +6456,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="14.25" customHeight="1">
+    <row r="49" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -6549,7 +6564,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="14.25" customHeight="1">
+    <row r="50" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -6657,7 +6672,7 @@
       </c>
       <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:43" ht="14.25" customHeight="1">
+    <row r="51" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -6765,7 +6780,7 @@
       </c>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:43" ht="14.25" customHeight="1">
+    <row r="52" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -6873,7 +6888,7 @@
       </c>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:43" ht="14.25" customHeight="1">
+    <row r="53" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -6981,7 +6996,7 @@
       </c>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:43" ht="14.25" customHeight="1">
+    <row r="54" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7089,7 +7104,7 @@
       </c>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:43" ht="14.25" customHeight="1">
+    <row r="55" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7197,7 +7212,7 @@
       </c>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:43" ht="14.25" customHeight="1">
+    <row r="56" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7305,7 +7320,7 @@
       </c>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:43" ht="14.25" customHeight="1">
+    <row r="57" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7412,35 +7427,35 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="14.25" customHeight="1">
+    <row r="58" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:43" ht="14.25" customHeight="1">
-      <c r="B59" s="54" t="s">
+    <row r="59" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="41" t="s">
+      <c r="M59" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="43"/>
-      <c r="R59" s="51" t="s">
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="48"/>
+      <c r="R59" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
       <c r="W59" s="8"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
@@ -7463,18 +7478,18 @@
       <c r="AP59" s="8"/>
       <c r="AQ59" s="8"/>
     </row>
-    <row r="60" spans="1:43" ht="14.25" customHeight="1">
+    <row r="60" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="1" t="s">
         <v>20</v>
       </c>
@@ -7494,11 +7509,11 @@
       <c r="P60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
@@ -7521,16 +7536,16 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:43" ht="14.25" customHeight="1">
+    <row r="61" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="2" t="s">
         <v>62</v>
       </c>
@@ -7552,11 +7567,11 @@
         <f t="shared" ref="P61:P76" si="3">DEC2HEX(O61,2)</f>
         <v>03</v>
       </c>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
@@ -7579,16 +7594,16 @@
       <c r="AP61" s="8"/>
       <c r="AQ61" s="8"/>
     </row>
-    <row r="62" spans="1:43" ht="14.25" customHeight="1">
+    <row r="62" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
       <c r="I62" s="14" t="s">
         <v>63</v>
       </c>
@@ -7610,11 +7625,11 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
@@ -7637,7 +7652,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:43" ht="14.25" customHeight="1">
+    <row r="63" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L63" s="4"/>
       <c r="M63" s="12" t="s">
         <v>92</v>
@@ -7652,17 +7667,17 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:43" ht="14.25" customHeight="1">
+    <row r="64" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L64" s="4"/>
       <c r="M64" s="12" t="s">
         <v>93</v>
@@ -7677,17 +7692,17 @@
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
       <c r="AO64" s="4"/>
     </row>
-    <row r="65" spans="2:45" ht="14.25" customHeight="1">
+    <row r="65" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L65" s="4"/>
       <c r="M65" s="12" t="s">
         <v>94</v>
@@ -7703,18 +7718,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:45" ht="14.25" customHeight="1">
-      <c r="B66" s="57" t="s">
+    <row r="66" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
       <c r="L66" s="4"/>
       <c r="M66" s="12" t="s">
         <v>100</v>
@@ -7729,26 +7744,26 @@
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="R66" s="52" t="s">
+      <c r="R66" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
     </row>
-    <row r="67" spans="2:45" ht="14.25" customHeight="1">
+    <row r="67" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
       <c r="I67" s="26" t="s">
         <v>20</v>
       </c>
@@ -7769,22 +7784,22 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
     </row>
-    <row r="68" spans="2:45" ht="15" customHeight="1">
+    <row r="68" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
       <c r="I68" s="30"/>
       <c r="J68" s="33" t="str">
         <f>DEC2HEX(C68)</f>
@@ -7804,22 +7819,22 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
     </row>
-    <row r="69" spans="2:45" ht="14.25" customHeight="1">
+    <row r="69" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
       <c r="I69" s="32"/>
       <c r="J69" s="33" t="str">
         <f>DEC2HEX(C69)</f>
@@ -7839,13 +7854,13 @@
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="57"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="57"/>
     </row>
-    <row r="70" spans="2:45" ht="14.25" customHeight="1">
+    <row r="70" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L70" s="4"/>
       <c r="M70" s="12" t="s">
         <v>95</v>
@@ -7860,13 +7875,13 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
+      <c r="V70" s="57"/>
     </row>
-    <row r="71" spans="2:45" ht="14.25" customHeight="1">
+    <row r="71" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L71" s="4"/>
       <c r="M71" s="12" t="s">
         <v>99</v>
@@ -7881,13 +7896,13 @@
         <f t="shared" si="3"/>
         <v>1A</v>
       </c>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="57"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
     </row>
-    <row r="72" spans="2:45" ht="14.25" customHeight="1">
+    <row r="72" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L72" s="4"/>
       <c r="M72" s="12" t="s">
         <v>106</v>
@@ -7903,7 +7918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="2:45" ht="14.25" customHeight="1">
+    <row r="73" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L73" s="4"/>
       <c r="M73" s="12"/>
       <c r="N73" s="13"/>
@@ -7913,7 +7928,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="74" spans="2:45" ht="14.25" customHeight="1">
+    <row r="74" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L74" s="4"/>
       <c r="M74" s="12"/>
       <c r="N74" s="13"/>
@@ -7923,7 +7938,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="75" spans="2:45" ht="14.25" customHeight="1">
+    <row r="75" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L75" s="4"/>
       <c r="M75" s="12"/>
       <c r="N75" s="13"/>
@@ -7933,7 +7948,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="76" spans="2:45" ht="14.25" customHeight="1">
+    <row r="76" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L76" s="4"/>
       <c r="M76" s="12"/>
       <c r="N76" s="13"/>
@@ -7942,975 +7957,970 @@
         <v>00</v>
       </c>
     </row>
-    <row r="77" spans="2:45" ht="14.25" customHeight="1">
+    <row r="77" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L77" s="4"/>
-      <c r="M77" s="44" t="s">
+      <c r="M77" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="46"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="51"/>
       <c r="Q77" s="39"/>
     </row>
-    <row r="78" spans="2:45" ht="14.25" customHeight="1">
+    <row r="78" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="39"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="49"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="54"/>
       <c r="Q78" s="39"/>
       <c r="AS78" s="2"/>
     </row>
-    <row r="79" spans="2:45" ht="14.25" customHeight="1">
+    <row r="79" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L79" s="39"/>
       <c r="M79" s="39"/>
       <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
     </row>
-    <row r="80" spans="2:45" ht="14.25" customHeight="1"/>
-    <row r="81" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="82" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="83" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="84" spans="14:18" ht="14.25" customHeight="1">
+    <row r="80" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N84" s="39"/>
       <c r="O84" s="39"/>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
       <c r="R84" s="39"/>
     </row>
-    <row r="85" spans="14:18" ht="14.25" customHeight="1">
+    <row r="85" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N85" s="39"/>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
       <c r="R85" s="39"/>
     </row>
-    <row r="86" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="87" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="88" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="89" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="90" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="91" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="92" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="93" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="94" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="95" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="96" spans="14:18" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="86" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="14:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="B66:J66"/>
     <mergeCell ref="M59:P59"/>
     <mergeCell ref="M77:P78"/>
     <mergeCell ref="C62:H62"/>
@@ -8919,14 +8929,19 @@
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
     <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="B66:J66"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C2:H6 C8:H9 C11:H12 C14:H16 C18:H20 C22:H23 C25:H25 C27:H33 C35:H57">
-    <cfRule type="cellIs" dxfId="7" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="90" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="89" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="90" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:AC25 J26:L31 N26:AC31 M26:M34 AB32:AC34">
@@ -8938,19 +8953,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:AC57">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AH57">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
